--- a/users.xlsx
+++ b/users.xlsx
@@ -24,36 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Users</t>
   </si>
   <si>
+    <t>pizzalta</t>
+  </si>
+  <si>
+    <t>byfranco.rest</t>
+  </si>
+  <si>
+    <t>losmandingosdesauces6</t>
+  </si>
+  <si>
+    <t>burgerpizza.ec</t>
+  </si>
+  <si>
+    <t>pollo.pelucon</t>
+  </si>
+  <si>
     <t>diegorodriguezmuniz</t>
   </si>
   <si>
     <t>justinbieber</t>
   </si>
   <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>librosycomicsecuador</t>
-  </si>
-  <si>
-    <t>he_and18</t>
-  </si>
-  <si>
-    <t>https.lukes.999</t>
-  </si>
-  <si>
-    <t>pizzalta</t>
-  </si>
-  <si>
-    <t>momos._pizza</t>
-  </si>
-  <si>
-    <t>mr.dictos</t>
+    <t>tomholland2013</t>
   </si>
 </sst>
 </file>
@@ -394,13 +391,13 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -413,48 +410,46 @@
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
